--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.207</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.762</v>
+        <v>16.591</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.162</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.749</v>
+        <v>15.27</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.369</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.028</v>
+        <v>8.712</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.369999926468008</v>
+        <v>-0.7788362019953681</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.86118903739455</v>
+        <v>7.677169513735471</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.59853010857633</v>
+        <v>15.21642425353571</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.064252861242975</v>
+        <v>-7.768047734222186</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.23630344141296</v>
+        <v>10.07189010259049</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.30942104012821</v>
+        <v>13.93684396051641</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.787822747993161</v>
+        <v>-4.354075598435308</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.49392539049186</v>
+        <v>25.67787958245012</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.95705976921935</v>
+        <v>29.14147483912627</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24.53360094476917</v>
+        <v>24.58257219862256</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.30190405389529</v>
+        <v>30.27142584207287</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.696843144189</v>
+        <v>33.33984519228998</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.3838540757589</v>
+        <v>-1.480318738169579</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.81285999756033</v>
+        <v>14.84017578940894</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.73406490539124</v>
+        <v>27.07627906975066</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.61992872697994</v>
+        <v>14.620069581619</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.44235540973049</v>
+        <v>26.85047196101639</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.16886575307502</v>
+        <v>37.01671685003041</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.956592758628055</v>
+        <v>6.322193494126061</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.3008873653765</v>
+        <v>20.59888224547971</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.49338867188479</v>
+        <v>29.8263918648172</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.62651445931276</v>
+        <v>5.2594686620752</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.6185902725684</v>
+        <v>32.43208913135164</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>35.13001553389304</v>
+        <v>47.47044537538378</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.81168559114118</v>
+        <v>32.79177315185266</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.81602429819715</v>
+        <v>47.43947953050779</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>38.28495444135149</v>
+        <v>55.99216704889617</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.5799097752176</v>
+        <v>11.08804647149677</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.36795473360695</v>
+        <v>40.42185993615238</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.28771021913465</v>
+        <v>52.6375311070452</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>19.94333617025134</v>
+        <v>15.68241855247707</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.95592170153466</v>
+        <v>33.20974021052803</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.80268130546222</v>
+        <v>40.99827696554818</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>14.82337626945626</v>
+        <v>4.901188655706257</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.51001886897602</v>
+        <v>25.20591074853937</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.697670142674</v>
+        <v>34.39654131242393</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19.65049995240675</v>
+        <v>5.224078082281501</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.86670027857787</v>
+        <v>41.247231301082</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>42.49781182588345</v>
+        <v>58.88062358812335</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.46698918997973</v>
+        <v>51.98766297319052</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43.51248371189647</v>
+        <v>64.79578370194304</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>45.85969021210511</v>
+        <v>75.74383092614451</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.95965948182295</v>
+        <v>12.92259493108632</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.88099103835306</v>
+        <v>52.83090940228394</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43.84211891581423</v>
+        <v>66.86526408556139</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.22922186709525</v>
+        <v>10.5859627852297</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.07755823809644</v>
+        <v>27.80955422284126</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.7634801859105</v>
+        <v>37.40885814734288</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.040010108389035</v>
+        <v>9.844711534390122</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>20.54166203879759</v>
+        <v>34.46057366502954</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.53234389007791</v>
+        <v>40.79414274853662</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.822482456445808</v>
+        <v>11.76495195116605</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.89295502013346</v>
+        <v>56.93583530611716</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.28253027877103</v>
+        <v>62.82479381114582</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.68558274446767</v>
+        <v>56.8330405451475</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.5325255869095</v>
+        <v>63.92847985355423</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>34.8507017607622</v>
+        <v>65.4325345643841</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.22178133863513</v>
+        <v>13.11142995152836</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.97896596582543</v>
+        <v>41.88025979908151</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32.83906027391055</v>
+        <v>53.00306027340356</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.97665134081814</v>
+        <v>11.79567243648697</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.15381296095876</v>
+        <v>32.95739720037029</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.81644902292483</v>
+        <v>43.05566652261073</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.407363083714337</v>
+        <v>6.998123722541528</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.07437739583148</v>
+        <v>29.22751851423605</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.17754764854184</v>
+        <v>39.70755375101997</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>14.13375971698961</v>
+        <v>6.540507783655563</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.49114655268766</v>
+        <v>48.15157522623742</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.91536151211444</v>
+        <v>62.20309736503049</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.42595967125455</v>
+        <v>46.92685306234277</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>37.50421671661886</v>
+        <v>61.79147595793098</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>39.89666613116822</v>
+        <v>67.02189329838129</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.89601292466312</v>
+        <v>10.58240782038022</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.99569083750212</v>
+        <v>53.24977367486401</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.85602251938637</v>
+        <v>61.8178260381902</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>21.46010466110534</v>
+        <v>12.10327396739823</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.80672292645529</v>
+        <v>40.43553764180724</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.6096402267499</v>
+        <v>48.63190482456046</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16.44534597820478</v>
+        <v>3.902501492109231</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.44326361639884</v>
+        <v>34.46320796127066</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.55102672084361</v>
+        <v>44.66980453262708</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>21.34168634742882</v>
+        <v>6.375103815487655</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.89944783353518</v>
+        <v>58.5983148121963</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>44.46461593773445</v>
+        <v>76.73301085838153</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>39.27354819575629</v>
+        <v>65.99923435554265</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>45.39124161002928</v>
+        <v>80.82511087950192</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>47.664578540604</v>
+        <v>87.82589175088447</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.46744349975187</v>
+        <v>10.19484805077429</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>40.70121742055743</v>
+        <v>67.12867655456816</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>45.60534290360827</v>
+        <v>76.18596549372035</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>9.537982523036259</v>
+        <v>12.49119848089402</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.3525901535635</v>
+        <v>26.91533623802014</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.03102953259455</v>
+        <v>33.61164384821357</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.254702579530283</v>
+        <v>7.517248384784672</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>19.7349222782175</v>
+        <v>31.04518885181702</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.70841919938498</v>
+        <v>34.39168355775232</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.049172520788346</v>
+        <v>11.04265425492063</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.09770541668964</v>
+        <v>54.433782350149</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.48083635949139</v>
+        <v>55.32425115730334</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.88119919566513</v>
+        <v>52.27781806390607</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.72506614727785</v>
+        <v>57.72025978216039</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.0397112024234</v>
+        <v>57.27757803705862</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.44274671940687</v>
+        <v>14.55712407923398</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.16641255956873</v>
+        <v>36.42395617585925</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>32.03606112174303</v>
+        <v>43.61241812825472</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.58481330421584</v>
+        <v>18.60317909793188</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.73187204206521</v>
+        <v>38.16578396035454</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.38605836551341</v>
+        <v>45.43476782731094</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8.928821569125569</v>
+        <v>9.55311338630657</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.58076348637468</v>
+        <v>32.56611864901297</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.66474366089784</v>
+        <v>39.87142388715342</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>13.66901392273092</v>
+        <v>10.47600004505754</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.00836179412802</v>
+        <v>52.54834297404103</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.42565755445673</v>
+        <v>61.87369157906327</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.93559224204986</v>
+        <v>51.34603751298574</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>37.01123652649516</v>
+        <v>63.52692431505185</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>39.40019177827995</v>
+        <v>66.15080239113576</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.42777743845885</v>
+        <v>18.2777986238516</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>32.49630295476346</v>
+        <v>54.35217312454626</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.36712764016069</v>
+        <v>59.2719651162218</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.01849285084169</v>
+        <v>18.64192989410177</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.33781947548917</v>
+        <v>45.46204506037882</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.13157412969667</v>
+        <v>50.73652670156199</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>15.91552635726014</v>
+        <v>5.545247827370197</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.89900580989674</v>
+        <v>37.14056301488149</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.98848545688254</v>
+        <v>44.33586006385031</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>20.82497524962304</v>
+        <v>9.438503417706791</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>38.36711231139817</v>
+        <v>62.68446894042098</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>43.92388355382015</v>
+        <v>75.83258969142182</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.73184583089569</v>
+        <v>69.8520675715198</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>44.84751209088493</v>
+        <v>82.05450803850815</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>47.11728795199322</v>
+        <v>87.04645611094116</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.94520911303552</v>
+        <v>18.85621269219371</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>40.15141665879082</v>
+        <v>69.09229280263486</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>45.06421630288434</v>
+        <v>74.70933281609052</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>8.322084043955998</v>
+        <v>6.910582422374326</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.70900906235556</v>
+        <v>13.72171235220006</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.40173584481772</v>
+        <v>21.51953864818109</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.940482758378842</v>
+        <v>-0.7530180060151324</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.99090816835657</v>
+        <v>15.0083883660675</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.0267895915342</v>
+        <v>18.67798014948691</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.675137509781184</v>
+        <v>3.267024552389479</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.27707149464475</v>
+        <v>32.19062061028499</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.69177830348202</v>
+        <v>34.34102389111647</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.31585184488056</v>
+        <v>28.1159556872475</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.03903627504757</v>
+        <v>31.08995030776547</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.42481950468008</v>
+        <v>39.79224287954512</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13.27270664724232</v>
+        <v>17.35616938700966</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.60913901561434</v>
+        <v>29.49985714809734</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.49700450026996</v>
+        <v>39.16198581336725</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.47593790261715</v>
+        <v>13.9757211247594</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.19262623109169</v>
+        <v>24.50966725604966</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.87496894098386</v>
+        <v>34.55424043995067</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>7.74098136573831</v>
+        <v>4.585642331337347</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22.9623397935539</v>
+        <v>16.60522526418035</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.11682170713156</v>
+        <v>25.93196258088327</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.30518629133928</v>
+        <v>30.16227336197566</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.76848745411941</v>
+        <v>43.03273976657292</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.49474212885842</v>
+        <v>26.70697836167219</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.45194896479597</v>
+        <v>38.42624650636757</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.91242901321633</v>
+        <v>52.13031862049738</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>18.36618733991662</v>
+        <v>17.2621074190264</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.05931167016285</v>
+        <v>41.99140267946863</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.94657688629029</v>
+        <v>50.31559999950105</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19.90285199594332</v>
+        <v>16.71107663370334</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.80391372617217</v>
+        <v>32.23544440788346</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.60815203292837</v>
+        <v>40.17845203464146</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>14.69547824176344</v>
+        <v>4.341554166418128</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.25446302891818</v>
+        <v>22.30985792563704</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.40713802640171</v>
+        <v>31.73389136732323</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.53773999180824</v>
+        <v>5.780016327799565</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.64355802015667</v>
+        <v>40.17446855547849</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.22881309598677</v>
+        <v>56.58972719675592</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>37.24436465973405</v>
+        <v>46.7601733776981</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>43.24231298725179</v>
+        <v>57.14458937641016</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.57994159164505</v>
+        <v>73.41044988946186</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.84342940158791</v>
+        <v>20.84414139054906</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.66580609513541</v>
+        <v>55.59359766230262</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43.59576049463751</v>
+        <v>65.64820194699922</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>12.74551132935789</v>
+        <v>13.27609742404088</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.30653081156811</v>
+        <v>26.98016781946144</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.98260395930991</v>
+        <v>33.34480059868384</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>7.416378402224737</v>
+        <v>4.05608023046711</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22.66577364851821</v>
+        <v>31.0835772671203</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.67732177452127</v>
+        <v>34.27824569777011</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.1999414697445</v>
+        <v>11.82164949191975</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.98118885520536</v>
+        <v>55.15875618628318</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.38635176415083</v>
+        <v>55.60091811646766</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.93751561417348</v>
+        <v>50.13302101428796</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.71052533682011</v>
+        <v>55.29695265113276</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>37.07463579804624</v>
+        <v>56.42837808514626</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17.76978788040019</v>
+        <v>17.91937037221314</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.19363936739797</v>
+        <v>35.01669760645496</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.08227473564167</v>
+        <v>42.95462397406559</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18.10962978030154</v>
+        <v>23.89696677160342</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.9936893835583</v>
+        <v>41.97489146454186</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.65261196408878</v>
+        <v>49.04162410004754</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>12.42147152148552</v>
+        <v>11.16807067629964</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.83692281165486</v>
+        <v>36.14873229103674</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.96104150384333</v>
+        <v>43.15435749182507</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.21366658072105</v>
+        <v>55.85022471795481</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>39.66008172679298</v>
+        <v>64.51060021874687</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.32442139159428</v>
+        <v>53.28824008406898</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>40.33041393865894</v>
+        <v>66.6459349296434</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>42.76795838307188</v>
+        <v>71.58192952252094</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.07800706285239</v>
+        <v>27.53825960514505</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.85503559990607</v>
+        <v>58.27355686619581</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>40.73982680470138</v>
+        <v>63.26863566589405</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.25112105290071</v>
+        <v>21.60147176831024</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.31552514778807</v>
+        <v>43.99255412780179</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.10366909343514</v>
+        <v>49.39473881517907</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>19.09623973714146</v>
+        <v>5.746277354083851</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.84227706565193</v>
+        <v>35.53215198961411</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.97139749248628</v>
+        <v>43.24670431654236</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>23.983553056668</v>
+        <v>10.65263781020531</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>41.25672996090942</v>
+        <v>59.4774758667953</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.83343881960786</v>
+        <v>72.63762711769476</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.78100893841689</v>
+        <v>68.07082364019018</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>47.82791038640175</v>
+        <v>79.43212456054133</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>50.14629257018916</v>
+        <v>87.09339184361491</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>30.26387256219162</v>
+        <v>24.92433616405501</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>43.16916292932385</v>
+        <v>65.22427211304395</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>48.10158898523044</v>
+        <v>72.71008377765563</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>7.07626729728489</v>
+        <v>7.763148455592052</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>20.67036133463447</v>
+        <v>23.70583452381744</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.28837983178011</v>
+        <v>31.99333447794712</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1.821392685379678</v>
+        <v>5.408809865084926</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.09857104203145</v>
+        <v>35.03743233581466</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.99611738464349</v>
+        <v>36.13800633064344</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>6.5226571128819</v>
+        <v>11.09812042145439</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.30775479391164</v>
+        <v>61.507568027542</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.63373103071375</v>
+        <v>61.60478434124139</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>23.1000371609823</v>
+        <v>48.57221731866859</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.83270953125164</v>
+        <v>60.13121810888786</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.13762298064184</v>
+        <v>61.58185817915845</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>11.83269587474206</v>
+        <v>11.05824622683921</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>24.33578587494848</v>
+        <v>35.30950407319049</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.14093346845598</v>
+        <v>40.01368748532312</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>12.50278202213358</v>
+        <v>18.16279235118228</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.43072380144839</v>
+        <v>40.30021049632158</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.02134605343689</v>
+        <v>47.96480415655638</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>6.882589910481617</v>
+        <v>9.032943649365031</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.33634684409288</v>
+        <v>38.89593996864762</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.33965183245478</v>
+        <v>43.37346283359668</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>11.5353227518763</v>
+        <v>11.92839763409757</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.61359075353391</v>
+        <v>61.44971221908452</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.97077659974708</v>
+        <v>68.76468198195903</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.55306639738204</v>
+        <v>49.6093795425779</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>34.51460120675836</v>
+        <v>69.41749344827019</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>36.89082113378457</v>
+        <v>73.57004769411949</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.21228327030346</v>
+        <v>20.00085844460072</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.0661477149466</v>
+        <v>62.37077801944398</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.86874095458914</v>
+        <v>63.59837843541059</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.866623593237</v>
+        <v>16.75110518602072</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>13.781585054826</v>
+        <v>3.911719814175065</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.55347117593714</v>
+        <v>39.8096644128699</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.56653249749139</v>
+        <v>44.07415240614478</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>18.60360967170105</v>
+        <v>8.88053972465557</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>35.87728362499351</v>
+        <v>67.01605990612234</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>41.37399976835434</v>
+        <v>78.12713286194517</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.2448640919234</v>
+        <v>65.30122855479908</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>42.24625186616112</v>
+        <v>83.48816838985584</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>44.50595749117167</v>
+        <v>90.03607335012663</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>24.63364136090109</v>
+        <v>16.18511699996339</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.61497505050271</v>
+        <v>70.02113327101122</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>42.46426039798688</v>
+        <v>72.38666939548477</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2.261149506912451</v>
+        <v>-3.776032994988775</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>15.68599950331462</v>
+        <v>2.897494887244768</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.33525454159217</v>
+        <v>9.805547373075036</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-3.005361926149011</v>
+        <v>-8.515643152360873</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.07371103961263</v>
+        <v>6.292555177614339</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.00970390049817</v>
+        <v>9.801084360094286</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1.628578010952342</v>
+        <v>-4.97619225447783</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.23341932238029</v>
+        <v>21.90270743233584</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.58855139867113</v>
+        <v>24.01686051405748</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.13682463612027</v>
+        <v>23.49497900932503</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.85571257553621</v>
+        <v>28.36809228356001</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.18872481806746</v>
+        <v>29.57530081680651</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>6.96312771513905</v>
+        <v>-3.479174701848557</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>19.38515243926739</v>
+        <v>11.12902973947343</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.21445996974384</v>
+        <v>16.95157168007839</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>7.607515271211174</v>
+        <v>14.37632741242047</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.37968736470545</v>
+        <v>26.41463294344883</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.00792300176102</v>
+        <v>35.39495239079825</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1.976867540515903</v>
+        <v>8.019827115180853</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17.24605797581606</v>
+        <v>21.65724488531999</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>23.29393814342644</v>
+        <v>30.29996426644849</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.561416623774184</v>
+        <v>9.0360160732887</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.47301666471677</v>
+        <v>34.70340847331955</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.86595191628013</v>
+        <v>47.6880810174323</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>23.51783971111523</v>
+        <v>35.48642518053087</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.4695479706992</v>
+        <v>48.11775799699002</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.87423799484772</v>
+        <v>53.43609068536208</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>12.26513072945668</v>
+        <v>12.70960168258129</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.04644764089129</v>
+        <v>42.26643053396075</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.87683241018456</v>
+        <v>48.31018611740954</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>14.08604803954671</v>
+        <v>14.99719459411813</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.03497925069646</v>
+        <v>33.92493410060363</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>33.79763714384978</v>
+        <v>40.6885285867158</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>9.000608360188382</v>
+        <v>6.053134334483737</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.60165704769103</v>
+        <v>27.3866252976751</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.65278847283149</v>
+        <v>35.62127295439496</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>13.75474491873802</v>
+        <v>9.633495247746374</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>30.8735500169397</v>
+        <v>45.54001178668364</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.39870684773295</v>
+        <v>61.18729732256944</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.34272502530102</v>
+        <v>54.81979193349276</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>37.33502655546309</v>
+        <v>67.29060697415883</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>39.62074813745365</v>
+        <v>74.89071056209383</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>19.81469434670696</v>
+        <v>14.51374248088178</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>32.73052867088231</v>
+        <v>57.20721799195011</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>37.60109835882335</v>
+        <v>65.28003432241155</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>6.854684832261361</v>
+        <v>-3.472157102475329</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>20.46700573569865</v>
+        <v>1.301592856949902</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.22011067587071</v>
+        <v>8.7955178286986</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1.486394339997926</v>
+        <v>-7.829132918735233</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.78391199384139</v>
+        <v>4.96134740203005</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>22.86258443228587</v>
+        <v>8.9796967694054</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>6.231990006345985</v>
+        <v>-4.905769948267128</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>23.07966744602638</v>
+        <v>18.65364684672748</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.55695069557835</v>
+        <v>21.24955347694075</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.03402066793766</v>
+        <v>14.26613075352081</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.85196724250804</v>
+        <v>18.65184573419453</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>31.24917262451203</v>
+        <v>25.18219996659943</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>11.78102962274544</v>
+        <v>-4.923062264901084</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.2989675436874</v>
+        <v>2.07193315565204</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.24214695654676</v>
+        <v>8.594353691385187</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>12.19298307336619</v>
+        <v>0.8997316510210354</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.13646516887207</v>
+        <v>9.439573029717145</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.87186532191851</v>
+        <v>18.54529719034239</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.463984644710662</v>
+        <v>-6.523974321650819</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>21.93337821003446</v>
+        <v>3.882915287364916</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.125477054991</v>
+        <v>12.28086580678031</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>11.15677154621948</v>
+        <v>-6.682743835768598</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.29154172383294</v>
+        <v>13.98079332767092</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.81042252492277</v>
+        <v>26.30075345577482</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.39804148118703</v>
+        <v>9.961319609708035</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.45054511172359</v>
+        <v>23.71766508272504</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>36.92301274873934</v>
+        <v>34.62169075859089</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>17.06451632774401</v>
+        <v>-4.644733814143414</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.93895157988214</v>
+        <v>15.30172914508814</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.87949913019325</v>
+        <v>18.9974822192632</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>18.56796012323955</v>
+        <v>3.199768529813703</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>32.69412951077781</v>
+        <v>16.56204022406138</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.56348427810413</v>
+        <v>24.96513217595544</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>13.37972189792604</v>
+        <v>-6.955284949983188</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.18577428425785</v>
+        <v>9.002910658993933</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.38577595461624</v>
+        <v>19.05174398819089</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>18.23449992263137</v>
+        <v>-5.768950316155831</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.58551262416299</v>
+        <v>22.86351317120728</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>41.23865597232919</v>
+        <v>40.76305073881003</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.11364246186453</v>
+        <v>29.32715559231844</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.20968794680513</v>
+        <v>42.78477282712561</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>44.56162570421719</v>
+        <v>57.39743121338143</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>24.50476857593138</v>
+        <v>-2.419642279387254</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>37.51139385974688</v>
+        <v>27.25587694171146</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>42.50048847047906</v>
+        <v>35.05041307956785</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>9.982893168706028</v>
+        <v>9.161148274617609</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>23.74712974403606</v>
+        <v>24.89404364191581</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.43183569572506</v>
+        <v>35.08173877022376</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>4.881553054594201</v>
+        <v>9.284260677865838</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.35384893869105</v>
+        <v>36.78564913490863</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.31356463042118</v>
+        <v>41.76648924004446</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>9.624589899617577</v>
+        <v>11.74027397406696</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.61390129293573</v>
+        <v>59.97120898799307</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>31.99778509526407</v>
+        <v>63.15805457904106</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.45603933110389</v>
+        <v>56.52270958360427</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>32.26661913571114</v>
+        <v>61.53764756018987</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.58882414536546</v>
+        <v>64.28177918213211</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15.06773651867131</v>
+        <v>15.99108556630973</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.73439043644524</v>
+        <v>39.02277992567674</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>32.60179645718071</v>
+        <v>54.95432300192119</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>15.06880173825619</v>
+        <v>6.885583879914329</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.16823455565268</v>
+        <v>27.03942960229731</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.82095414535161</v>
+        <v>37.3295327276301</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>9.589731687523027</v>
+        <v>1.764428406796135</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.2354608786102</v>
+        <v>27.07531346633494</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.29943279656625</v>
+        <v>35.74397051797605</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>14.28213384338739</v>
+        <v>1.412887875008416</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>31.56395092877645</v>
+        <v>46.24500861638789</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>36.97525745401039</v>
+        <v>58.02077780379236</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.54940716281145</v>
+        <v>42.74555306229352</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>37.59093529907643</v>
+        <v>54.93913021856756</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>39.98437471742773</v>
+        <v>60.24619165748314</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20.08980246275752</v>
+        <v>9.988924586556756</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.10508637668173</v>
+        <v>47.76727454502032</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.96699192090666</v>
+        <v>59.31949513815383</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.33618987414852</v>
+        <v>11.10566603013337</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.60180585606407</v>
+        <v>37.81648945792535</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>41.40081426807052</v>
+        <v>46.15543921461114</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>16.40846828577855</v>
+        <v>3.376183354184384</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.37631529767189</v>
+        <v>35.96574612817341</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.45191318135946</v>
+        <v>44.4948985472363</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>21.26458302048252</v>
+        <v>5.369351689927818</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.74273515027741</v>
+        <v>59.99846451238367</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.29943074276763</v>
+        <v>75.40097793282447</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>39.16144082391625</v>
+        <v>65.48979770036561</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>45.24298580931332</v>
+        <v>77.58716230304137</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>47.51975885169782</v>
+        <v>85.17501030971414</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.42767346968404</v>
+        <v>13.95931612733907</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>40.57461710167671</v>
+        <v>65.21292357060616</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>45.48470394569618</v>
+        <v>77.75278137913253</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-0.0353431633436827</v>
+        <v>-0.7310165575918219</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>13.26732907844358</v>
+        <v>2.662245071312277</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>18.94806705490093</v>
+        <v>11.49919739613978</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-5.277173691225222</v>
+        <v>-6.977160631931291</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.631363634880977</v>
+        <v>3.103847897341787</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.62061811421198</v>
+        <v>10.28301584240197</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-0.6775835302607547</v>
+        <v>-3.334569259079267</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.77854588937439</v>
+        <v>17.91101277068658</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>21.1665542287845</v>
+        <v>22.98755381271321</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.66806311637418</v>
+        <v>17.84255184718064</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.35051478565533</v>
+        <v>18.86683285620791</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.69105363699376</v>
+        <v>25.77065755236044</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>4.577184750238885</v>
+        <v>-1.681819578612441</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>16.93482594293476</v>
+        <v>7.286817711660497</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.75583818331557</v>
+        <v>14.8867299725358</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>4.942942981819339</v>
+        <v>6.047898587859272</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>18.58416267689613</v>
+        <v>13.74004787100169</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.25257967907394</v>
+        <v>24.85023967637398</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-0.6598089981839017</v>
+        <v>-1.725978947471837</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>14.42950592796718</v>
+        <v>6.622560702056724</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.53846767336069</v>
+        <v>19.47805667905772</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3.883008208910361</v>
+        <v>-1.457220006942713</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>20.6371986074718</v>
+        <v>17.12352947575943</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.0713467032305</v>
+        <v>33.23698865701622</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.66768242517855</v>
+        <v>16.57111942851365</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.58116819891175</v>
+        <v>24.90297597962431</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.99720736523821</v>
+        <v>37.13029510427931</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>9.504140548432275</v>
+        <v>1.992637237252588</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.21255433894096</v>
+        <v>23.73883740112232</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>27.04063316997253</v>
+        <v>31.40244711671895</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.60251565002797</v>
+        <v>10.82276340750577</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.42410435917551</v>
+        <v>24.81283855177677</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>31.21949660136902</v>
+        <v>34.01620629786635</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>6.54769323485467</v>
+        <v>-0.7169473780517635</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>21.97437654373569</v>
+        <v>14.87465719925348</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.08097577842001</v>
+        <v>27.27496250431438</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>11.26704574782143</v>
+        <v>3.258088554645362</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.23295293008826</v>
+        <v>31.57931403962562</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.79147292429201</v>
+        <v>51.17772957354911</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.69206512600964</v>
+        <v>37.60566186866712</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>34.64610789456687</v>
+        <v>45.04413567478316</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>36.94012380100574</v>
+        <v>61.58326289178419</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>17.25227828906669</v>
+        <v>7.410719821284779</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.09712736073158</v>
+        <v>40.65494781339013</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>34.96017996078703</v>
+        <v>49.66757788371996</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>6.377243736516037</v>
+        <v>-8.393729264729949</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.01827813785023</v>
+        <v>-1.645409107219926</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.64217204128206</v>
+        <v>4.064956407442459</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>1.00001735536101</v>
+        <v>-12.99373094626684</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>16.28153378472115</v>
+        <v>1.400617599413785</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.2012820237111</v>
+        <v>3.418478971128089</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>5.735662857094338</v>
+        <v>-10.5737572525615</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.57655139824431</v>
+        <v>19.19705524954149</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.912614997076</v>
+        <v>17.80725239136735</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>22.33732571610502</v>
+        <v>17.14472732467625</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.11842760695799</v>
+        <v>21.85340043945627</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.41643606995927</v>
+        <v>21.88966948102962</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.03461886720751</v>
+        <v>-10.00774432088507</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>23.602858170596</v>
+        <v>3.374449620871253</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.41943996125505</v>
+        <v>6.343563306968811</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>11.75369713307477</v>
+        <v>19.24687792172382</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.72753679678581</v>
+        <v>32.8605281468619</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.33006683167567</v>
+        <v>38.60031441740336</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>6.011325799237277</v>
+        <v>9.875138964563611</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>21.46830419941358</v>
+        <v>26.18925153889004</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.49918954957656</v>
+        <v>31.77183558692608</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>10.69660365676653</v>
+        <v>11.09083453371392</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.83061883039007</v>
+        <v>42.73046559293667</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.20295736857751</v>
+        <v>48.42100611239557</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.73519851562791</v>
+        <v>40.66716285367844</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>33.74674652859223</v>
+        <v>53.17208878295049</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.11894694140658</v>
+        <v>55.31236648009307</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.36046263438642</v>
+        <v>16.14420069900343</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.27451750140694</v>
+        <v>46.00535325351016</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.09421020767591</v>
+        <v>46.69216520551868</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.24153513110208</v>
+        <v>21.32176942091937</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>32.38644212133535</v>
+        <v>41.92565550015349</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>38.12624871359325</v>
+        <v>45.84856195583141</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>13.04215435369493</v>
+        <v>6.952181488477358</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.82789498016431</v>
+        <v>31.8403175995826</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.8644219665247</v>
+        <v>37.46196757497584</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>17.89958314414991</v>
+        <v>11.47290147986127</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.2348870006637</v>
+        <v>53.87146537253015</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.74488432463487</v>
+        <v>63.71617388919328</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.57433910582262</v>
+        <v>61.62637372193934</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>41.62584230181794</v>
+        <v>73.32493215866728</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.879447955909</v>
+        <v>77.86665837493865</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>23.92342958628118</v>
+        <v>18.35179328542302</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.97254843156522</v>
+        <v>61.93724547510158</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>41.83357509258109</v>
+        <v>63.4877700375011</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1.919441005428347</v>
+        <v>4.29333767620566</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>15.30654083382117</v>
+        <v>8.359818109887733</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>20.89671818530978</v>
+        <v>15.61118618729589</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-3.356232174900182</v>
+        <v>-2.233243898868942</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>11.63616002164455</v>
+        <v>8.48574778761364</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.52526944849726</v>
+        <v>12.76322480431126</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1.277375066462081</v>
+        <v>2.032065620034622</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.84426179823728</v>
+        <v>24.77927596767186</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.14996528283542</v>
+        <v>27.83139020570636</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>17.64700984967855</v>
+        <v>25.96112971354672</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>23.34646099972444</v>
+        <v>26.12910444857418</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.6485171472412</v>
+        <v>29.08711044247929</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>6.509129615353142</v>
+        <v>4.942864455081924</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.89579045563214</v>
+        <v>11.0218016401434</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.68407139127174</v>
+        <v>18.93908122970581</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.508817820028185</v>
+        <v>1.280268293137915</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.23165662689649</v>
+        <v>9.686467470342514</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.80583308912999</v>
+        <v>17.80283091038107</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>0.8711168734625971</v>
+        <v>-7.759167511413629</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>16.03894565535271</v>
+        <v>0.7246991645861058</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.04430990531327</v>
+        <v>9.245085462233767</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>5.440891920036314</v>
+        <v>-6.598171180320456</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.30194489041203</v>
+        <v>13.60128478796677</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>27.64997555930634</v>
+        <v>25.15013243193406</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.24982530252075</v>
+        <v>14.22966226133938</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.17891845981133</v>
+        <v>20.99991585254893</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.55614773612676</v>
+        <v>27.27198565124056</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>11.04082679173013</v>
+        <v>-3.175613475063294</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.77526765873844</v>
+        <v>16.14465393232053</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.56821459669073</v>
+        <v>22.65477345135748</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>13.50072940145598</v>
+        <v>9.712650199729758</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.4057366800849</v>
+        <v>25.44613097386216</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.1090376880923</v>
+        <v>31.42545933528107</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>8.393404821540038</v>
+        <v>-3.849339151423429</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>23.90533388010846</v>
+        <v>13.42807671509386</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.90696817728933</v>
+        <v>21.63105991265187</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>13.14985482851771</v>
+        <v>0.6244446200369467</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.22549028235373</v>
+        <v>32.11204670253804</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.70120692049548</v>
+        <v>47.1247790192862</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.60287507521132</v>
+        <v>40.92793395326797</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.57311500348349</v>
+        <v>47.95341722132657</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.82864386514919</v>
+        <v>56.30496716793463</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.11209369022308</v>
+        <v>6.054292146299595</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>31.9894026317881</v>
+        <v>38.85875573915857</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.81887021593256</v>
+        <v>45.96157953262884</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-1.712816534415726</v>
+        <v>-2.638116455205612</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.50197167182911</v>
+        <v>-2.983191873757896</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.04829831292656</v>
+        <v>1.620672168439377</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-7.089308496769487</v>
+        <v>-7.948955643737612</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.707516073215809</v>
+        <v>-3.524407378552063</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.55589945514406</v>
+        <v>-1.666525854870621</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2.504052276734079</v>
+        <v>-4.02729842054918</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.86616227011577</v>
+        <v>11.52390299412625</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.12633635578531</v>
+        <v>9.572471936970437</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>13.68162111233304</v>
+        <v>8.045525316539546</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.3261562354458</v>
+        <v>7.209403087686418</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.60804802093447</v>
+        <v>8.74613629346107</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>2.671035839247157</v>
+        <v>-3.272217601776411</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.93015854200839</v>
+        <v>-2.703540851101955</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.67395594278534</v>
+        <v>-1.178285418459403</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.062278050732548</v>
+        <v>-0.9052782068768792</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.61358335482324</v>
+        <v>2.858361274457458</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.14413557050555</v>
+        <v>8.098508723449676</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-2.665538672362786</v>
+        <v>-8.367025213154442</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.30859189737994</v>
+        <v>-6.381360143118847</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.27167200713789</v>
+        <v>-0.4170144284840021</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>1.855254998982549</v>
+        <v>-7.797737909673309</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>18.52146570165225</v>
+        <v>5.429777919455439</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.82342776724786</v>
+        <v>11.09224360324274</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.48107935296875</v>
+        <v>2.367486620187613</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.35387915232119</v>
+        <v>7.950491889538604</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.71010330885594</v>
+        <v>11.88957726588786</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>7.397912280476277</v>
+        <v>-6.456295314365995</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.0030352289707</v>
+        <v>5.954787617010659</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.75172954797631</v>
+        <v>6.28414712232513</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.14750228285223</v>
+        <v>9.818125310968732</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.87452445905445</v>
+        <v>20.4428526374282</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.53457372556091</v>
+        <v>23.88117729389464</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.942838677194278</v>
+        <v>-2.919882920192883</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.25521859290791</v>
+        <v>7.848640416471547</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.21789832478837</v>
+        <v>13.76749847796237</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>9.657722406033647</v>
+        <v>1.365348752052007</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.53270176411485</v>
+        <v>25.42172509500967</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.96362474957306</v>
+        <v>35.10093896278921</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.92257284115706</v>
+        <v>30.78606433067672</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.83568167110001</v>
+        <v>36.70702945909301</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.07127183676836</v>
+        <v>42.84506933315908</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.5625831854078</v>
+        <v>5.938527601208797</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.3039052742304</v>
+        <v>30.65872319480514</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.09049050499953</v>
+        <v>32.07624304409919</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.855887941581576</v>
+        <v>18.36739449576348</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.45910749666647</v>
+        <v>25.89904967064545</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.22566520003173</v>
+        <v>34.51681745374024</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.490570634957663</v>
+        <v>7.585238252760981</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.77930960874271</v>
+        <v>25.25555454219538</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.87682891491563</v>
+        <v>28.63505307177122</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>9.30783792632484</v>
+        <v>14.7472585653836</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.16031916039693</v>
+        <v>43.41387607022748</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>31.6479412107721</v>
+        <v>47.51848147535728</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.1263327958416</v>
+        <v>42.6759550657279</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.92744037717299</v>
+        <v>43.60179880104119</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.3270451733116</v>
+        <v>47.41632025234683</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>14.86598394302391</v>
+        <v>23.31199445411608</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.40665437214106</v>
+        <v>34.16524086908499</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>32.35438050373259</v>
+        <v>45.20052027916206</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>14.87115861313753</v>
+        <v>11.76363248325445</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.80827179429588</v>
+        <v>22.9583356870198</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.5582215039508</v>
+        <v>33.03045094933012</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.144887563649474</v>
+        <v>-1.137514540731438</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.60692950936933</v>
+        <v>13.14741487373525</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.81936868991006</v>
+        <v>20.5487611571756</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>13.90320884471416</v>
+        <v>1.512911438456094</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.04481298726228</v>
+        <v>27.13987674281456</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.57580772838983</v>
+        <v>40.84073557337022</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.16627918874217</v>
+        <v>27.00635452329545</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>37.20316035613898</v>
+        <v>36.1529185247473</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>39.67627265825094</v>
+        <v>43.6133946445437</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.8259885265772</v>
+        <v>11.48925035562576</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.72610277717833</v>
+        <v>34.68810637739814</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>37.67177310601662</v>
+        <v>43.01874005970291</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.29970288688708</v>
+        <v>20.75147724588908</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.4260192203791</v>
+        <v>37.14931894052967</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>41.30452750246773</v>
+        <v>45.66072628061557</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>16.11515545071138</v>
+        <v>4.700698361462692</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.92144272625992</v>
+        <v>25.02742755590027</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.13478686549199</v>
+        <v>33.21745070805856</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>21.03663727152021</v>
+        <v>9.82321542221451</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.40186013345281</v>
+        <v>43.8908365801454</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.05963657725514</v>
+        <v>61.43011185544078</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.94224345386191</v>
+        <v>53.73803016447648</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>45.02126034319457</v>
+        <v>61.17981750485956</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>47.37236589465786</v>
+        <v>71.29972898722758</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.32227512174077</v>
+        <v>20.2558918312515</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.35809456741912</v>
+        <v>53.79239094379728</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>45.3473532105601</v>
+        <v>64.85680637976961</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>8.402840543613216</v>
+        <v>17.84629525651261</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.97912368154828</v>
+        <v>31.44335167039058</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.58908200276257</v>
+        <v>39.87190330065571</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>3.227108730467085</v>
+        <v>9.783706708334115</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>18.42200106796787</v>
+        <v>32.3873990022095</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.33835351974762</v>
+        <v>38.09938151676742</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>7.936417559421381</v>
+        <v>15.41642291534101</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.68418903685142</v>
+        <v>54.63755064569239</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.00368260509264</v>
+        <v>58.71807106019634</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.48332893288971</v>
+        <v>56.706695088322</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>30.2466400623515</v>
+        <v>60.63018097132903</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.53916549703492</v>
+        <v>63.68841273782105</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.22851138326962</v>
+        <v>18.18338255094833</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.76852361590917</v>
+        <v>39.97300613660827</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.55270915448559</v>
+        <v>51.61633903505984</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>13.00265364223662</v>
+        <v>10.47235514550079</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.90475338118051</v>
+        <v>27.60777745972863</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.49702434333986</v>
+        <v>36.87931906002303</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>7.455284768508347</v>
+        <v>0.07908902030533937</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.81592154032811</v>
+        <v>19.7530436859413</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.84686804456374</v>
+        <v>29.67526887327097</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.10575872534496</v>
+        <v>2.059560771439415</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.13892040151913</v>
+        <v>37.43849602866192</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.49740021069982</v>
+        <v>49.97302018949024</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.07569033944339</v>
+        <v>38.62029585301617</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>35.0689302724372</v>
+        <v>49.51656258672649</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.43597312971548</v>
+        <v>56.44144538009073</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>17.75569857002006</v>
+        <v>6.578646404276448</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>30.63491353867292</v>
+        <v>40.82041427021444</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.42287948874463</v>
+        <v>50.39154103108846</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.47140017850658</v>
+        <v>12.21912182698467</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>33.54481006532001</v>
+        <v>36.10943429562636</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>39.27070640299067</v>
+        <v>43.63582647158265</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>14.47504409224337</v>
+        <v>-2.12936019348242</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.16662676245505</v>
+        <v>25.52998404698705</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.19891390510359</v>
+        <v>35.40798533620441</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>19.29547943882618</v>
+        <v>3.004304006479494</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.53070089073897</v>
+        <v>48.67214358872486</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>42.02343911591728</v>
+        <v>65.31006038215858</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.9039247517084</v>
+        <v>58.06446351464971</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.93478056414942</v>
+        <v>68.91668916188536</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>45.18272200036238</v>
+        <v>78.26762916231436</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.30907652022768</v>
+        <v>8.217831796841359</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.32225067098725</v>
+        <v>55.56836448289568</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>43.14957833545535</v>
+        <v>66.27576614465525</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>11.78460656159142</v>
+        <v>12.65210992151521</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.54444655130907</v>
+        <v>27.53897650023286</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.30208616373521</v>
+        <v>36.21484253677779</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>6.551735099181993</v>
+        <v>9.717460679079302</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>22.02548924433083</v>
+        <v>36.4188511805115</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.11231584105501</v>
+        <v>40.97483210748585</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>11.34455640050473</v>
+        <v>13.187182791868</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.35206637086239</v>
+        <v>55.29949446406656</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>33.83137919083057</v>
+        <v>58.81268046265274</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.34304382011333</v>
+        <v>52.64807491512091</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>34.18748071358061</v>
+        <v>57.88648208721987</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.57653176944974</v>
+        <v>60.53215496611086</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.02010967696964</v>
+        <v>12.67357408630321</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.65126294252751</v>
+        <v>36.6353812142094</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.59614041727802</v>
+        <v>52.26218993342631</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>16.92833634336358</v>
+        <v>11.56564133541924</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.01450191253043</v>
+        <v>29.78058597534898</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.75325676149388</v>
+        <v>39.96158458359734</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>11.32672293128524</v>
+        <v>5.574341602823218</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.96502810577011</v>
+        <v>28.22495710601752</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.16563136095234</v>
+        <v>37.28526945661421</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>16.06658564319457</v>
+        <v>4.380862326593366</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>33.35432612741765</v>
+        <v>42.63651841454732</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>38.87418542255543</v>
+        <v>56.23572528100997</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.4977032275999</v>
+        <v>41.1221014917513</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>39.5772377756049</v>
+        <v>54.84761778206087</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.0399698430496</v>
+        <v>61.9662890826123</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>22.09743183418375</v>
+        <v>8.098169896548406</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.08234997683959</v>
+        <v>44.96553747361549</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.02173538342466</v>
+        <v>57.89337942419761</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>23.16493701406856</v>
+        <v>14.27733141443452</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>37.43203123240633</v>
+        <v>37.81383837752211</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.30014937062045</v>
+        <v>45.89405597047284</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>18.1126762663184</v>
+        <v>5.841316098510795</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.08509697506246</v>
+        <v>34.43104392712835</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.28720578197612</v>
+        <v>43.70652993889178</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>23.00720491236944</v>
+        <v>6.203933385528025</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>40.50908422937058</v>
+        <v>53.12143252429403</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>46.15877991717137</v>
+        <v>70.05692050214944</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.0695742779387</v>
+        <v>62.37965296043908</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>47.18986459317589</v>
+        <v>74.51132467869527</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>49.53209839385445</v>
+        <v>84.12566657019289</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.39453055038976</v>
+        <v>10.89511821452158</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>42.51006623000703</v>
+        <v>58.84414570951072</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>47.49544824787937</v>
+        <v>73.71999627295776</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-3.001384860031216</v>
+        <v>17.4902607463412</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.42210823076262</v>
+        <v>28.08846389914954</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>17.49536623179887</v>
+        <v>34.9660926795651</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-8.827965758807327</v>
+        <v>22.96554722998369</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>7.397868627108085</v>
+        <v>45.93686067364897</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>13.83841372535507</v>
+        <v>49.51142791148869</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-3.840232757832254</v>
+        <v>18.47040247543999</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.00893629446983</v>
+        <v>57.16051679094893</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>19.80254235364896</v>
+        <v>57.2858432571359</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>14.07608006062791</v>
+        <v>52.77663395384975</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>20.22834992843382</v>
+        <v>54.32963675636243</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.77278064709851</v>
+        <v>57.55835583266339</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>2.289967284450119</v>
+        <v>21.41424346193384</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.55625103051537</v>
+        <v>37.40404460864099</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>20.75233117200636</v>
+        <v>50.47857525553008</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>2.491591121293194</v>
+        <v>21.71306843263321</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>17.25951224334003</v>
+        <v>35.20053437934073</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>23.31574174304284</v>
+        <v>43.40455925857223</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-3.717208713233294</v>
+        <v>27.79913303634152</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>12.68365063833904</v>
+        <v>45.30251116904248</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>19.24656616573021</v>
+        <v>53.20771110201776</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>1.21281987844575</v>
+        <v>15.50839471552775</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>19.35850953854681</v>
+        <v>49.54053586381588</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.19812979832948</v>
+        <v>59.46800102924431</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.58804815179756</v>
+        <v>46.02297715589336</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.98745567310734</v>
+        <v>55.89692800304889</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.61044066663933</v>
+        <v>63.29438665740626</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>7.721785192935476</v>
+        <v>21.184167037659</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>21.36053033106463</v>
+        <v>49.1313713305853</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.55321213536793</v>
+        <v>59.13119320024354</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>9.677709690256647</v>
+        <v>23.58383576922498</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>24.63458094882526</v>
+        <v>41.84654052413166</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.82537711598292</v>
+        <v>47.98921215011385</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>4.054293826808895</v>
+        <v>27.32266129459217</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>20.80528808990321</v>
+        <v>49.95962827128324</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>27.36840557676497</v>
+        <v>58.40261715998944</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>9.156826681005034</v>
+        <v>16.9575817334804</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>27.52531743554269</v>
+        <v>59.19849042764523</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>33.49930279813789</v>
+        <v>72.68025361647537</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.19453730297794</v>
+        <v>66.81520552502934</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>34.63766679484706</v>
+        <v>74.40922399508415</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>37.13119855044125</v>
+        <v>84.6858783899869</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>16.03466232662174</v>
+        <v>23.9930453075069</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.80991329884112</v>
+        <v>61.48912342369852</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>35.04843322069179</v>
+        <v>74.44524928612788</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.072533517336053</v>
+        <v>12.29394453676063</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>21.80767546614686</v>
+        <v>23.99220075966469</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>27.54174854706271</v>
+        <v>32.7487194245893</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>2.893949418612646</v>
+        <v>7.083256942273728</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>18.2740510657813</v>
+        <v>25.97792883988775</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.33666728378333</v>
+        <v>30.11999991220026</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>7.648431158780426</v>
+        <v>12.66631463674282</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.60296971229736</v>
+        <v>48.21046336576541</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.04819047428527</v>
+        <v>51.30053864363237</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.49247305889622</v>
+        <v>50.07790765021677</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.32742045802219</v>
+        <v>54.56734178840745</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.67324806545965</v>
+        <v>57.73540494516389</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>13.12837086628656</v>
+        <v>10.35374322347159</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.79278685871095</v>
+        <v>31.27204888572533</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.68580907535578</v>
+        <v>42.81822613336156</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.93808075571333</v>
+        <v>10.33469468233924</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>26.99916141903946</v>
+        <v>26.19594112218963</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>32.71369833052816</v>
+        <v>35.74715580084555</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>7.389357576790434</v>
+        <v>2.551508064826017</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>22.93543396026857</v>
+        <v>20.06560080150326</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.11179104190646</v>
+        <v>27.99716755104675</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.08636735095818</v>
+        <v>3.649249780158392</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.323455530064</v>
+        <v>36.55706073798621</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.80811834967608</v>
+        <v>48.44631296338034</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.3550313306023</v>
+        <v>37.64909475269148</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.42162723945601</v>
+        <v>49.90860834764786</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>37.84474645523973</v>
+        <v>57.03258038281187</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>17.92400658066048</v>
+        <v>5.039386408428932</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.93136880308051</v>
+        <v>38.56000494618554</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>35.82652405935751</v>
+        <v>48.22341286929581</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.33056835862626</v>
+        <v>11.77542477557487</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>33.56664892792167</v>
+        <v>33.70011800984137</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>39.4118281724771</v>
+        <v>41.76988253297456</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>14.33557319200378</v>
+        <v>0.3885030428516032</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.21375630295462</v>
+        <v>24.63929985389056</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.39092392114237</v>
+        <v>33.18875214894178</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>19.19565211240996</v>
+        <v>4.204431944061902</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.63950472213205</v>
+        <v>46.49265363495534</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.25431159252251</v>
+        <v>62.90398556658338</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>37.10749438085737</v>
+        <v>56.33054996588644</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.21472617355229</v>
+        <v>68.13445543942137</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>45.51528590201901</v>
+        <v>78.36075055378794</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.40013981139874</v>
+        <v>6.602696776424615</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>38.54259048918733</v>
+        <v>52.60393481222986</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>43.47640298319696</v>
+        <v>63.98778730039542</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>5.643815934932295</v>
+        <v>3.38649212611066</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>18.76004226793511</v>
+        <v>9.317634530137305</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.38846983794734</v>
+        <v>16.72194161453414</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>0.4740031101217461</v>
+        <v>-3.017298603182944</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.22270975454658</v>
+        <v>11.74449513694768</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.16945913089019</v>
+        <v>15.56521000213778</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>5.076395538530081</v>
+        <v>2.467727372080596</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.33155700523758</v>
+        <v>29.23915693083027</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.68569170543607</v>
+        <v>31.55929051624768</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.33927114801462</v>
+        <v>25.04485686518169</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.95563163843649</v>
+        <v>26.492600768683</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.29516398211451</v>
+        <v>32.31786157459951</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.42840186963647</v>
+        <v>3.414114443544584</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>22.55142479131807</v>
+        <v>14.37406788453874</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.36610746615751</v>
+        <v>22.96578159740745</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>10.58638822257119</v>
+        <v>10.9546144423035</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.03336397339287</v>
+        <v>21.09050588754642</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.65509080881042</v>
+        <v>30.73191721400608</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>5.06526269153057</v>
+        <v>2.919852775796507</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>19.9897602699272</v>
+        <v>15.03343455963091</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.05846418162401</v>
+        <v>24.05058020833369</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>9.610240925251615</v>
+        <v>4.089986377332771</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.1528017951576</v>
+        <v>28.5111707353996</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.55851247456823</v>
+        <v>41.63223170919623</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.31261425518714</v>
+        <v>24.84743519319353</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.15889560684904</v>
+        <v>34.11810704606089</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.57266117995822</v>
+        <v>44.80171966386704</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>15.32283595665778</v>
+        <v>7.033668864316759</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.80149514138971</v>
+        <v>31.21353842974433</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>32.61863146693219</v>
+        <v>40.80704543564227</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.89972960106486</v>
+        <v>10.49320911662966</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.53839253663728</v>
+        <v>26.03538052085035</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>36.27495689549131</v>
+        <v>34.24718502896463</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>11.90909502131562</v>
+        <v>-0.4026856180104161</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>27.17519114290781</v>
+        <v>17.72983736801641</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.23464062468587</v>
+        <v>27.39508946192303</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>16.61320569506796</v>
+        <v>2.866094159904954</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.38030734818721</v>
+        <v>35.94431478321645</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.89906860831796</v>
+        <v>53.14598562610821</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.93211356168464</v>
+        <v>40.92002124990072</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>39.8227104568594</v>
+        <v>48.79161620627651</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>42.11489573577255</v>
+        <v>62.95083342002912</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>22.67047729781478</v>
+        <v>6.146321908141665</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.28330196871968</v>
+        <v>40.82223857685674</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.1394771906036</v>
+        <v>54.50513422770201</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-3.592850624050147</v>
+        <v>8.525650085527623</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>10.79751447136568</v>
+        <v>17.67129018447236</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>16.8738857735621</v>
+        <v>25.18577143274366</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-9.417601593422216</v>
+        <v>6.256701851345817</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>6.76911547787704</v>
+        <v>26.35053624998597</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>13.21381003850319</v>
+        <v>31.2197212242036</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-4.440628724456761</v>
+        <v>7.5480888554576</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>13.37103832859373</v>
+        <v>42.64851303489278</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.16739921445287</v>
+        <v>43.84732916279598</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>13.45092265525633</v>
+        <v>38.26631432686955</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>19.59497267216457</v>
+        <v>40.27293266709095</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>22.14303237509027</v>
+        <v>46.53074738263914</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>1.686988380280138</v>
+        <v>10.72286651934252</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>14.93255038394835</v>
+        <v>26.52424653000626</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>20.12783657561471</v>
+        <v>38.59502944680052</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>1.860011367992893</v>
+        <v>9.689948920051968</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.59603752547019</v>
+        <v>21.96901303266322</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>22.6565346197332</v>
+        <v>31.20415650792072</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-4.346339410288515</v>
+        <v>7.398467751309319</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>12.01667727889776</v>
+        <v>22.83482715684716</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>18.58476629415208</v>
+        <v>32.48577061615729</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>0.5723185681752838</v>
+        <v>1.821212482726288</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>18.68172211453374</v>
+        <v>32.74021848737497</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>24.52527299927966</v>
+        <v>44.11928935085766</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>18.92345078133373</v>
+        <v>28.85666694006813</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.31487796306714</v>
+        <v>39.40268869140963</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.94159425471062</v>
+        <v>50.35781619154279</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>7.078878069934689</v>
+        <v>7.083563343727299</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>20.69774040344304</v>
+        <v>34.47789240954436</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.89029098832633</v>
+        <v>44.17154975890737</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>9.071005942793223</v>
+        <v>7.220381244518286</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.99734962918313</v>
+        <v>24.14176252831391</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.19135591938697</v>
+        <v>31.35981344825323</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>3.450371752429499</v>
+        <v>2.392218409471532</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.16506760593919</v>
+        <v>22.76666427373292</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>26.73237641834267</v>
+        <v>32.87758345256521</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>8.541909601016211</v>
+        <v>-1.21418369844897</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>26.87561593213243</v>
+        <v>37.667631764114</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>32.85217552184167</v>
+        <v>52.51284499422835</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.55635439128441</v>
+        <v>44.7163551115439</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>33.99160269755198</v>
+        <v>52.74681813429911</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.48849553160565</v>
+        <v>66.70528211241086</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>15.41783225977363</v>
+        <v>5.178674143422803</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.17376791079589</v>
+        <v>41.74151527944304</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>34.41141007689636</v>
+        <v>54.82972788013698</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>13.25946631165536</v>
+        <v>17.39614777068787</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.66563006352715</v>
+        <v>30.27537845389555</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.25741105173815</v>
+        <v>39.0037989957927</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>8.324546274685467</v>
+        <v>10.79722891510577</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.43053058818493</v>
+        <v>36.71240657198607</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.33046831310706</v>
+        <v>44.04482231362477</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>12.99824803449799</v>
+        <v>17.73148736915579</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.60061532849025</v>
+        <v>58.65774827381507</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.91662939611317</v>
+        <v>62.33280833937898</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.53015727662792</v>
+        <v>57.66661573155663</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>35.24167800177123</v>
+        <v>58.36270930036435</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>37.54936585736071</v>
+        <v>62.34580179526811</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>18.38804712399175</v>
+        <v>16.96892715765177</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>30.72392466632966</v>
+        <v>33.2838964634652</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>35.57887254691775</v>
+        <v>53.04158016718072</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>18.27106092647669</v>
+        <v>18.544297431053</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>32.00448826254085</v>
+        <v>34.92888857984551</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>37.57047332389129</v>
+        <v>44.33420475760517</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>12.96520124221354</v>
+        <v>10.22905549516214</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.24004972952873</v>
+        <v>32.05056334937374</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.2461679577543</v>
+        <v>42.9136427973347</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>17.58728004241082</v>
+        <v>12.41062231153536</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.47333534585188</v>
+        <v>49.25909870055879</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>39.82230420760412</v>
+        <v>61.81274195065868</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>34.54954337785266</v>
+        <v>48.57319409632468</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>40.491143121726</v>
+        <v>57.37008834208311</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>42.86988381203876</v>
+        <v>64.7311490234957</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>23.33388042344973</v>
+        <v>15.52452481529875</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.01926104741827</v>
+        <v>46.09538144548336</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>40.86615102288661</v>
+        <v>60.70929861813651</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>24.23098915720756</v>
+        <v>16.87340229852496</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>38.14242713574235</v>
+        <v>38.97208745347593</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>43.84173804272088</v>
+        <v>46.5379563818884</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>19.46391478504686</v>
+        <v>5.273100477348528</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.06845144929312</v>
+        <v>33.65058580606266</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.07955871614183</v>
+        <v>44.4211181472918</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>24.24251817191815</v>
+        <v>9.750522191356403</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>41.33787599756456</v>
+        <v>55.64027482396555</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>46.8198775265529</v>
+        <v>71.8065582522818</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.82865211018881</v>
+        <v>64.16800957979186</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>47.81091537769223</v>
+        <v>71.92728675645424</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>50.07247191166972</v>
+        <v>81.79446515210421</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>30.34091102784949</v>
+        <v>13.56684098799509</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>43.16134032786241</v>
+        <v>54.99911590793355</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>48.05005553087621</v>
+        <v>72.05765967451589</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>8.819086531091029</v>
+        <v>12.2428114993463</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>22.52844835800014</v>
+        <v>23.15116041958937</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.25625076521933</v>
+        <v>31.7056898387281</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>3.704353831516979</v>
+        <v>8.429253892351234</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>19.07048232007378</v>
+        <v>26.40560150647946</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.12187492909199</v>
+        <v>30.06427090704398</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.437503748086824</v>
+        <v>12.95665480101818</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.35886437474937</v>
+        <v>47.25004600602364</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.8059001395437</v>
+        <v>50.90420161828261</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.27769938201398</v>
+        <v>50.26271000201158</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>31.12092770721635</v>
+        <v>57.89798290615276</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.45210903660494</v>
+        <v>56.5060186922697</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>13.94025356745605</v>
+        <v>11.72944632627833</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.5848916376636</v>
+        <v>31.91855843375692</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.47015469426334</v>
+        <v>42.62759920002669</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.75582239998525</v>
+        <v>14.53410820807833</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>27.79071397423849</v>
+        <v>29.46268302059713</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>33.49925991171503</v>
+        <v>39.08958241197079</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>8.27235189703525</v>
+        <v>8.201480192563686</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>23.80400576719367</v>
+        <v>24.15058134185939</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.9693382117398</v>
+        <v>32.13415380920799</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>12.95084065255305</v>
+        <v>8.24853930897212</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.15451134484159</v>
+        <v>39.78349006072521</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>35.64122972952056</v>
+        <v>52.5856612768231</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.21520896747503</v>
+        <v>41.76998044523794</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>36.29058249156579</v>
+        <v>56.6404245484267</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>38.69733380481234</v>
+        <v>60.3037715626947</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>18.80929710418845</v>
+        <v>10.73087783424575</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.79804628609759</v>
+        <v>43.73408351724041</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>36.68414013791632</v>
+        <v>52.21433982739803</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>20.02136881674667</v>
+        <v>10.05491165552758</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.23062030973479</v>
+        <v>30.47124664248131</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>40.07012553312555</v>
+        <v>38.81061213317663</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>15.08558654642651</v>
+        <v>0.4726621465080783</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.94743483927846</v>
+        <v>22.43759631354943</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>37.11469404352057</v>
+        <v>31.114295233377</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>19.92360384022936</v>
+        <v>2.549504923095704</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>37.33297054291977</v>
+        <v>42.64973298287925</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>42.95007053913046</v>
+        <v>60.2091826494401</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>37.82789689358344</v>
+        <v>53.76372163614167</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>43.94267539083261</v>
+        <v>67.88933946316908</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>46.22957242733554</v>
+        <v>74.9093351202402</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>26.14764700884761</v>
+        <v>6.19321774962112</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>39.26931311137625</v>
+        <v>49.79069540940316</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>44.19603921794315</v>
+        <v>61.06724565510093</v>
       </c>
     </row>
   </sheetData>
